--- a/deliverable3/burndown_chart/Burndown_Chart_Sprint1.xlsx
+++ b/deliverable3/burndown_chart/Burndown_Chart_Sprint1.xlsx
@@ -379,6 +379,12 @@
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1213,7 +1219,7 @@
   <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1291,7 +1297,9 @@
       <c r="B7" s="2">
         <v>12.5</v>
       </c>
-      <c r="C7" s="2"/>
+      <c r="C7" s="2">
+        <v>10</v>
+      </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A8" s="1">
@@ -1300,7 +1308,9 @@
       <c r="B8" s="2">
         <v>0</v>
       </c>
-      <c r="C8" s="2"/>
+      <c r="C8" s="2">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
